--- a/Sorting_Complexity_Chart.xlsx
+++ b/Sorting_Complexity_Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
@@ -49,10 +49,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -94,14 +94,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,38 +123,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,6 +147,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="calibri"/>
@@ -168,17 +163,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,9 +201,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,9 +215,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,7 +231,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,66 +252,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -324,7 +264,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +348,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,25 +378,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,13 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,43 +420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,30 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -560,6 +536,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -570,26 +561,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,10 +579,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,139 +626,133 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -831,6 +831,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>705485</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="BubbleSort"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="57150"/>
+          <a:ext cx="3590925" cy="2235835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>620395</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>159385</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="InsertionSort"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3506470" y="2360930"/>
+          <a:ext cx="4301490" cy="1906270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>363220</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>46355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="SelectionSort"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7800975" y="85725"/>
+          <a:ext cx="4058920" cy="2160905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1033,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -2048,6 +2167,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2056,7 +2176,7 @@
   <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
